--- a/outcome.xlsx
+++ b/outcome.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>Method</t>
   </si>
@@ -52,6 +52,9 @@
     <t>VAN-Res2Net-B0</t>
   </si>
   <si>
+    <t>VAN-Res2Net-RepLK-B0</t>
+  </si>
+  <si>
     <t>VAN-B1</t>
   </si>
   <si>
@@ -67,31 +70,70 @@
     <t>VAN-Act-B1</t>
   </si>
   <si>
+    <t>VAN-RepLK-B1</t>
+  </si>
+  <si>
+    <t>Kernel Size</t>
+  </si>
+  <si>
+    <t>3, 5, 7</t>
+  </si>
+  <si>
+    <t>5, 7, 9</t>
+  </si>
+  <si>
+    <t>7, 9, 11</t>
+  </si>
+  <si>
+    <t>w/o MB</t>
+  </si>
+  <si>
+    <t>Act. Layer</t>
+  </si>
+  <si>
+    <t>ReLU</t>
+  </si>
+  <si>
+    <t>CeLU</t>
+  </si>
+  <si>
+    <t>GeLU</t>
+  </si>
+  <si>
+    <t>ELU</t>
+  </si>
+  <si>
+    <t>w/o RepLK</t>
+  </si>
+  <si>
+    <t>w/o Res2Net</t>
+  </si>
+  <si>
+    <t>注释：</t>
+  </si>
+  <si>
+    <t>原始van b0</t>
+  </si>
+  <si>
+    <t>van 大核</t>
+  </si>
+  <si>
+    <t>van 多尺度分支</t>
+  </si>
+  <si>
+    <t>van 批归一化</t>
+  </si>
+  <si>
+    <t>van 增加非线性激活函数</t>
+  </si>
+  <si>
+    <t>van+replk</t>
+  </si>
+  <si>
+    <t>van+res2net</t>
+  </si>
+  <si>
     <t>VAN-Res2Net-B1</t>
-  </si>
-  <si>
-    <t>注释：</t>
-  </si>
-  <si>
-    <t>原始van b0</t>
-  </si>
-  <si>
-    <t>van 大核</t>
-  </si>
-  <si>
-    <t>van 多尺度分支</t>
-  </si>
-  <si>
-    <t>van 批归一化</t>
-  </si>
-  <si>
-    <t>van 增加非线性激活函数</t>
-  </si>
-  <si>
-    <t>van+replk</t>
-  </si>
-  <si>
-    <t>van+res2net</t>
   </si>
 </sst>
 </file>
@@ -104,14 +146,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,48 +604,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,102 +658,102 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,13 +1075,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="11.2222222222222" customWidth="1"/>
@@ -1070,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1080,8 +1118,14 @@
       <c r="C2">
         <v>4.103</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>51.79</v>
+      </c>
+      <c r="E2">
+        <v>78.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1091,8 +1135,22 @@
       <c r="C3">
         <v>4.256</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>52.8</v>
+      </c>
+      <c r="E3">
+        <v>80.3</v>
+      </c>
+      <c r="G3">
+        <f>D3-D2</f>
+        <v>1.01</v>
+      </c>
+      <c r="H3">
+        <f>E3-E2</f>
+        <v>1.61999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1102,8 +1160,14 @@
       <c r="C4">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>52.49</v>
+      </c>
+      <c r="E4">
+        <v>79.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1113,8 +1177,14 @@
       <c r="C5">
         <v>13.873</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1">
+        <v>47.45</v>
+      </c>
+      <c r="E5" s="1">
+        <v>74.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1124,8 +1194,14 @@
       <c r="C6">
         <v>4.103</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1">
+        <v>53.15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>79.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1135,8 +1211,22 @@
       <c r="C7">
         <v>5.803</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>54.25</v>
+      </c>
+      <c r="E7">
+        <v>81.55</v>
+      </c>
+      <c r="G7">
+        <f>E7-E2</f>
+        <v>2.86999999999999</v>
+      </c>
+      <c r="H7">
+        <f>D7-D2</f>
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1146,137 +1236,512 @@
       <c r="C8">
         <v>62.459</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>55.47</v>
+      </c>
+      <c r="E8">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2.506</v>
+        <v>21.05</v>
       </c>
       <c r="C9">
-        <v>13.856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>64.204</v>
+      </c>
+      <c r="D9">
+        <v>54.13</v>
+      </c>
+      <c r="E9">
+        <v>80.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>2.592</v>
+        <v>2.506</v>
       </c>
       <c r="C10">
-        <v>14.114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>13.856</v>
+      </c>
+      <c r="D10" s="1">
+        <v>52.49</v>
+      </c>
+      <c r="E10" s="1">
+        <v>79.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>3.276</v>
+        <v>2.592</v>
       </c>
       <c r="C11">
-        <v>18.191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>14.114</v>
+      </c>
+      <c r="D11">
+        <v>53.28</v>
+      </c>
+      <c r="E11">
+        <v>80.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>2.516</v>
+        <v>3.276</v>
       </c>
       <c r="C12">
-        <v>13.873</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>18.191</v>
+      </c>
+      <c r="D12">
+        <v>50.98</v>
+      </c>
+      <c r="E12">
+        <v>78.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>2.506</v>
+        <v>2.516</v>
       </c>
       <c r="C13">
-        <v>13.856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>13.873</v>
+      </c>
+      <c r="D13" s="1">
+        <v>48.78</v>
+      </c>
+      <c r="E13" s="1">
+        <v>75.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
+        <v>2.506</v>
+      </c>
+      <c r="C14">
+        <v>13.856</v>
+      </c>
+      <c r="D14">
+        <v>52.96</v>
+      </c>
+      <c r="E14">
+        <v>80.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
         <v>58.456</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>213.874</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="D15">
+        <v>56.11</v>
+      </c>
+      <c r="E15">
+        <v>82.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1.127</v>
+      </c>
+      <c r="D19">
+        <v>5.344</v>
+      </c>
+      <c r="E19">
+        <v>49.94</v>
+      </c>
+      <c r="F19">
+        <v>76.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>1.173</v>
+      </c>
+      <c r="D20">
+        <v>5.46</v>
+      </c>
+      <c r="E20">
+        <v>52.49</v>
+      </c>
+      <c r="F20">
+        <v>79.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>1.234</v>
+      </c>
+      <c r="D21">
+        <v>5.613</v>
+      </c>
+      <c r="E21">
+        <v>51.64</v>
+      </c>
+      <c r="F21">
+        <v>78.74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0.87</v>
+      </c>
+      <c r="D22">
+        <v>4.103</v>
+      </c>
+      <c r="E22">
+        <v>51.79</v>
+      </c>
+      <c r="F22">
+        <v>78.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.87</v>
+      </c>
+      <c r="D25">
+        <v>4.103</v>
+      </c>
+      <c r="E25">
+        <v>53.02</v>
+      </c>
+      <c r="F25">
+        <v>79.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>0.87</v>
+      </c>
+      <c r="D26">
+        <v>4.103</v>
+      </c>
+      <c r="E26">
+        <v>49.05</v>
+      </c>
+      <c r="F26">
+        <v>77.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>0.87</v>
+      </c>
+      <c r="D27">
+        <v>4.103</v>
+      </c>
+      <c r="E27">
+        <v>52.98</v>
+      </c>
+      <c r="F27">
+        <v>79.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>0.87</v>
+      </c>
+      <c r="D28">
+        <v>4.103</v>
+      </c>
+      <c r="E28">
+        <v>49.05</v>
+      </c>
+      <c r="F28">
+        <v>77.62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.87</v>
+      </c>
+      <c r="D29">
+        <v>4.103</v>
+      </c>
+      <c r="E29">
+        <v>51.79</v>
+      </c>
+      <c r="F29">
+        <v>78.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:5">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>21.05</v>
+      </c>
+      <c r="C32">
+        <v>64.204</v>
+      </c>
+      <c r="D32">
+        <v>54.13</v>
+      </c>
+      <c r="E32">
+        <v>80.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>20.409</v>
+      </c>
+      <c r="C33">
+        <v>62.459</v>
+      </c>
+      <c r="D33">
+        <v>55.47</v>
+      </c>
+      <c r="E33">
+        <v>81.47</v>
+      </c>
+      <c r="G33">
+        <f>D33-D32</f>
+        <v>1.34</v>
+      </c>
+      <c r="H33">
+        <f>E33-E32</f>
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>1.491</v>
+      </c>
+      <c r="C34">
+        <v>5.803</v>
+      </c>
+      <c r="D34">
+        <v>54.25</v>
+      </c>
+      <c r="E34">
+        <v>81.55</v>
+      </c>
+      <c r="G34">
+        <f>D34-D32</f>
+        <v>0.119999999999997</v>
+      </c>
+      <c r="H34">
+        <f>E34-E32</f>
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0.87</v>
+      </c>
+      <c r="C35">
+        <v>4.103</v>
+      </c>
+      <c r="D35">
+        <v>51.79</v>
+      </c>
+      <c r="E35">
+        <v>78.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>12</v>
+      <c r="B46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -1302,6 +1767,136 @@
     <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>1.127</v>
+      </c>
+      <c r="D58">
+        <v>5.344</v>
+      </c>
+      <c r="E58">
+        <v>49.94</v>
+      </c>
+      <c r="F58">
+        <v>76.99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59">
+        <v>1.173</v>
+      </c>
+      <c r="D59">
+        <v>5.46</v>
+      </c>
+      <c r="E59">
+        <v>52.49</v>
+      </c>
+      <c r="F59">
+        <v>79.55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <v>1.234</v>
+      </c>
+      <c r="D60">
+        <v>5.613</v>
+      </c>
+      <c r="E60">
+        <v>51.64</v>
+      </c>
+      <c r="F60">
+        <v>78.74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>0.87</v>
+      </c>
+      <c r="D61">
+        <v>4.103</v>
+      </c>
+      <c r="E61">
+        <v>51.79</v>
+      </c>
+      <c r="F61">
+        <v>78.68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>0.87</v>
+      </c>
+      <c r="D62">
+        <v>4.103</v>
+      </c>
+      <c r="E62">
+        <v>51.79</v>
+      </c>
+      <c r="F62">
+        <v>78.68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
